--- a/DataDrivenAutomationProject/src/test/resources/excel/GlobalAdmin.xlsx
+++ b/DataDrivenAutomationProject/src/test/resources/excel/GlobalAdmin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
   <si>
     <t>Iteration</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Approver</t>
   </si>
   <si>
-    <t>Test Content Document</t>
-  </si>
-  <si>
     <t>Document</t>
   </si>
   <si>
@@ -183,18 +180,12 @@
     <t>Quality Assurance Engineer</t>
   </si>
   <si>
-    <t>WorldWide</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>Test Description</t>
-  </si>
-  <si>
     <t>Documents</t>
   </si>
   <si>
@@ -208,16 +199,84 @@
   </si>
   <si>
     <t>GeoAvailability</t>
+  </si>
+  <si>
+    <t>LearningObjectives</t>
+  </si>
+  <si>
+    <t>LineOne</t>
+  </si>
+  <si>
+    <t>LineTwo</t>
+  </si>
+  <si>
+    <t>LineThree</t>
+  </si>
+  <si>
+    <t>LineFour</t>
+  </si>
+  <si>
+    <t>LineFive</t>
+  </si>
+  <si>
+    <t>Test Content Document_PPTX_UE7</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>ENOVIA</t>
+  </si>
+  <si>
+    <t>Test Description 1</t>
+  </si>
+  <si>
+    <t>sample.docx</t>
+  </si>
+  <si>
+    <t>Test Objective</t>
+  </si>
+  <si>
+    <t>https://www.wikipedia.org/</t>
+  </si>
+  <si>
+    <t>Wikipage</t>
+  </si>
+  <si>
+    <t>So if on advanced addition absolute received replying throwing he. Delighted consisted newspaper of unfeeling as neglected so. Tell size come hard mrs and four fond are. Of in commanded earnestly resources it. At quitting in strictly up wandered of relation answered felicity. Side need at in what dear ever upon if. Same down want joy neat ask pain help she. Alone three stuff use law walls fat asked. Near do that he help.</t>
+  </si>
+  <si>
+    <t>However venture pursuit he am mr cordial. Forming musical am hearing studied be luckily.</t>
+  </si>
+  <si>
+    <t>In it except to so temper mutual tastes mother. Interested cultivated its continuing now yet are. Out interested acceptance our partiality affronting unpleasant why add. Esteem garden men yet shy course. Consulted up my tolerably sometimes perpetual oh. Expression acceptance imprudence particular had eat unsatiable.</t>
+  </si>
+  <si>
+    <t>Fat new smallness few supposing suspicion two. Course sir people worthy horses add entire suffer. How one dull get busy dare far. At principle perfectly by sweetness do. As mr started arrival subject by believe. Strictly numerous outlived kindness whatever on we no on addition.</t>
+  </si>
+  <si>
+    <t>Breakfast agreeable incommode departure it an. By ignorant at on wondered relation. Enough at tastes really so cousin am of. Extensive therefore supported by extremity of contented. Is pursuit compact demesne invited elderly be. View him she roof tell her case has sigh. Moreover is possible he admitted sociable concerns. By in cold no less been sent hard hill.</t>
+  </si>
+  <si>
+    <t>Test File : sample.docx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -255,18 +314,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,15 +656,15 @@
     <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -630,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -644,15 +706,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -680,7 +742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -694,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -708,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -722,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -736,15 +798,44 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,83 +860,99 @@
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="L15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T15" s="2" t="s">
+      <c r="W15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="AA15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V15" s="2" t="s">
+      <c r="AB15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="AC15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="AD15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="AE15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="AF15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>1</v>
       </c>
@@ -853,54 +960,84 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="P16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="AE16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AF16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -959,12 +1096,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1009,12 +1146,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1045,12 +1182,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1081,12 +1218,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1123,12 +1260,15 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A14:AG14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AB16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/DataDrivenAutomationProject/src/test/resources/excel/GlobalAdmin.xlsx
+++ b/DataDrivenAutomationProject/src/test/resources/excel/GlobalAdmin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
   <si>
     <t>Iteration</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>Test File : sample.docx</t>
+  </si>
+  <si>
+    <t>Test Content Document_DOCX_UE7</t>
+  </si>
+  <si>
+    <t>sample.pptx</t>
   </si>
 </sst>
 </file>
@@ -631,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +992,7 @@
         <v>70</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>72</v>
@@ -1022,57 +1028,138 @@
         <v>57</v>
       </c>
       <c r="AE16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF16" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="AG16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -1081,12 +1168,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
@@ -1095,48 +1182,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
@@ -1145,130 +1232,145 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A14:AG14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AB16" r:id="rId1"/>
+    <hyperlink ref="AB17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/DataDrivenAutomationProject/src/test/resources/excel/GlobalAdmin.xlsx
+++ b/DataDrivenAutomationProject/src/test/resources/excel/GlobalAdmin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>Iteration</t>
   </si>
@@ -234,9 +234,6 @@
     <t>sample.docx</t>
   </si>
   <si>
-    <t>Test Objective</t>
-  </si>
-  <si>
     <t>https://www.wikipedia.org/</t>
   </si>
   <si>
@@ -265,6 +262,45 @@
   </si>
   <si>
     <t>sample.pptx</t>
+  </si>
+  <si>
+    <t>SpecifyURL</t>
+  </si>
+  <si>
+    <t>http://example.com/</t>
+  </si>
+  <si>
+    <t>Reference Link</t>
+  </si>
+  <si>
+    <t>eLearning</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Au au chinois chatoie retient il arriere donnent eclairs te. Apprit succes il chiens du ah. Sapin air matin jeu faite eumes. Qu ni ou ne sanglees detourne imberbes. Tacherai kolbacks du comptait la. Refletez il sifflent hebetude me arrivons.</t>
+  </si>
+  <si>
+    <t>Vieux art cours droit eux canon porta voila. La oh susciter ennemies epongent tu premiers pourquoi. Chaclos desolee abattre chatoie conquis ma il. Fait vous noir le pour je voir ca. Poussaient frequentes subitement ici pas bouquetins inattendus eue. Ardeur etendu eau par centre allons vin peu. Les dur bonnes gauche enfant cahots dit vif repris hideur. Morceaux ici lupanars ton toi victoire.</t>
+  </si>
+  <si>
+    <t>Je or creerent pressait disaient cherirai il. Elle mais bles eue ces paix cime aime. Propager reposoir ca me fenetres jeunesse on on trouvent derniere. Ai en qu un primeveres petitement bouquetins sanctifier. Nez violets sur regarde elancer toi adultes car drapent sentent.</t>
+  </si>
+  <si>
+    <t>Humains couleur maigres bonjour ma tassent oh. As si affection entrerent qu bourreaux ne marechaux. Ere rouge vie temps terre etale. Sans murs age mon tira nul elle aime. Est petitement air artilleurs republique toi victorieux gouverneur vin. Quoi aux bete par fils dans idee vont. Pas pere pont rien par ils doit. Emergent dissiper peu que feu encontre. Culbutent il agreerait alternent il causaient miserable. Aux ton par nos votre selon brave.</t>
+  </si>
+  <si>
+    <t>Le illumines qu miserable je caractere en. Victorieux des construits ete fut gourmettes bas. Image il court bonne et monte la et sueur. Echauffer esplanade et la chambrees. Moi capitaine nid jet fusillade flamboyer jugements. Il main murs ca mais je joue.</t>
+  </si>
+  <si>
+    <t>Test Learning Objective</t>
+  </si>
+  <si>
+    <t>Objectif d'apprentissage de test</t>
+  </si>
+  <si>
+    <t>Description du test 1</t>
   </si>
 </sst>
 </file>
@@ -324,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -332,6 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -637,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,12 +694,13 @@
     <col min="14" max="14" width="15.42578125" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -670,7 +708,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -698,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -712,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -720,7 +758,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -748,7 +786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -762,7 +800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -776,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -790,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -804,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -840,8 +878,9 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,49 +939,52 @@
         <v>56</v>
       </c>
       <c r="T15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AH15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -992,66 +1034,67 @@
         <v>70</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AD16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AC16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD16" s="2" t="s">
+      <c r="AE16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AF16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AF16" s="2" t="s">
+      <c r="AG16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG16" s="2" t="s">
+      <c r="AH16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -1081,58 +1124,61 @@
         <v>69</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AD17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AC17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AE17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AF17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AF17" s="2" t="s">
+      <c r="AG17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG17" s="2" t="s">
+      <c r="AH17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1140,7 +1186,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1168,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1182,7 +1228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1196,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1204,7 +1250,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1232,7 +1278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1246,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -1254,7 +1300,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1363,14 +1409,15 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A14:AG14"/>
+    <mergeCell ref="A14:AH14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AB16" r:id="rId1"/>
-    <hyperlink ref="AB17" r:id="rId2"/>
+    <hyperlink ref="AC16" r:id="rId1"/>
+    <hyperlink ref="AC17" r:id="rId2"/>
+    <hyperlink ref="T17" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/DataDrivenAutomationProject/src/test/resources/excel/GlobalAdmin.xlsx
+++ b/DataDrivenAutomationProject/src/test/resources/excel/GlobalAdmin.xlsx
@@ -258,9 +258,6 @@
     <t>Test File : sample.docx</t>
   </si>
   <si>
-    <t>Test Content Document_DOCX_UE7</t>
-  </si>
-  <si>
     <t>sample.pptx</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>Description du test 1</t>
+  </si>
+  <si>
+    <t>Test Content REFLINK_UE7</t>
   </si>
 </sst>
 </file>
@@ -365,10 +365,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -677,7 +677,7 @@
   <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,12 +701,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -751,12 +751,12 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -843,42 +843,42 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -939,7 +939,7 @@
         <v>56</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>61</v>
@@ -1034,11 +1034,11 @@
         <v>70</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>74</v>
@@ -1085,16 +1085,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -1124,37 +1124,37 @@
         <v>69</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T17" s="5" t="s">
-        <v>83</v>
+      <c r="T17" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="X17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="Y17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z17" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="AA17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>79</v>
@@ -1179,12 +1179,12 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1243,12 +1243,12 @@
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1293,12 +1293,12 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1329,12 +1329,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1365,12 +1365,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">

--- a/DataDrivenAutomationProject/src/test/resources/excel/GlobalAdmin.xlsx
+++ b/DataDrivenAutomationProject/src/test/resources/excel/GlobalAdmin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="111">
   <si>
     <t>Iteration</t>
   </si>
@@ -301,6 +301,54 @@
   </si>
   <si>
     <t>Test Content REFLINK_UE7</t>
+  </si>
+  <si>
+    <t>Test Content SCORM_UE7</t>
+  </si>
+  <si>
+    <t>SCORM</t>
+  </si>
+  <si>
+    <t>ProblemSolvingV1.zip</t>
+  </si>
+  <si>
+    <t>sample.story</t>
+  </si>
+  <si>
+    <t>sample.mp4</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>InstructorLed</t>
+  </si>
+  <si>
+    <t>Training Content</t>
+  </si>
+  <si>
+    <t>SessionName</t>
+  </si>
+  <si>
+    <t>SessionDescription</t>
+  </si>
+  <si>
+    <t>Test Content Training_UE7</t>
+  </si>
+  <si>
+    <t>This is a test session.</t>
+  </si>
+  <si>
+    <t>sample.xlsx</t>
+  </si>
+  <si>
+    <t>出 關雎 事 耳 覽 意 誨. 矣 曰</t>
+  </si>
+  <si>
+    <t>Test File : sample.xlsx</t>
+  </si>
+  <si>
+    <t>createContent</t>
   </si>
 </sst>
 </file>
@@ -332,7 +380,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -355,18 +403,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -674,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,112 +794,582 @@
     <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -814,12 +1378,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -828,429 +1392,355 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AA22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AB22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AE22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AG22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AH22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AI22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH15" s="1" t="s">
+      <c r="AJ22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="2" t="s">
+      <c r="T23" s="1"/>
+      <c r="U23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="V16" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="W23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="X23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="Z23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AA23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AE23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AF23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AG23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AF16" s="2" t="s">
+      <c r="AH23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AG16" s="2" t="s">
+      <c r="AI23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="AJ23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1278,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1292,141 +1782,209 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>1</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>1</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A19:D19"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A14:AH14"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A21:AJ21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AC16" r:id="rId1"/>
-    <hyperlink ref="AC17" r:id="rId2"/>
-    <hyperlink ref="T17" r:id="rId3"/>
+    <hyperlink ref="AE23" r:id="rId1"/>
+    <hyperlink ref="AE3" r:id="rId2"/>
+    <hyperlink ref="AE4" r:id="rId3"/>
+    <hyperlink ref="T4" r:id="rId4"/>
+    <hyperlink ref="AE5" r:id="rId5"/>
+    <hyperlink ref="AE6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,15 +2002,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1460,15 +2018,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1476,7 +2034,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1484,7 +2042,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1492,7 +2050,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1500,9 +2058,17 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/DataDrivenAutomationProject/src/test/resources/excel/GlobalAdmin.xlsx
+++ b/DataDrivenAutomationProject/src/test/resources/excel/GlobalAdmin.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20910" windowHeight="10635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="110">
   <si>
     <t>Iteration</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Chrome</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>N</t>
@@ -770,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +793,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -839,106 +836,106 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>3</v>
@@ -949,16 +946,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
@@ -968,78 +965,78 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="AA3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="AG3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="AJ3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -1047,16 +1044,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
@@ -1066,80 +1063,80 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="Q4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="AA4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="AG4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="AJ4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
@@ -1147,16 +1144,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
@@ -1166,78 +1163,78 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="Q5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Z5" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="AA5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="AG5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="AJ5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -1245,16 +1242,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
@@ -1264,79 +1261,79 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="AE6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="AG6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI6" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="AJ6" s="2" t="s">
         <v>7</v>
@@ -1344,7 +1341,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1375,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
@@ -1389,12 +1386,12 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1419,13 +1416,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -1433,13 +1430,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
@@ -1447,13 +1444,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
@@ -1461,13 +1458,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
@@ -1475,18 +1472,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1529,106 +1526,106 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="P22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="1" t="s">
+      <c r="V22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AB22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AE22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AG22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG22" s="1" t="s">
+      <c r="AH22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH22" s="1" t="s">
+      <c r="AI22" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="AJ22" s="1" t="s">
         <v>3</v>
@@ -1639,16 +1636,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
@@ -1658,83 +1655,83 @@
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="S23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="X23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y23" s="2" t="s">
+      <c r="Z23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Z23" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="AA23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AF23" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="AG23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI23" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="AJ23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1759,13 +1756,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
@@ -1773,13 +1770,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
@@ -1787,18 +1784,18 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1823,13 +1820,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1837,18 +1834,18 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1873,18 +1870,18 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1909,18 +1906,18 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1945,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1984,7 +1981,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +1991,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2002,7 +1999,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2010,66 +2007,66 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
